--- a/output/spam.xlsx
+++ b/output/spam.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Spam Bacon Eggs Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Spam Bacon Eggs Sheet'!$A$1:$F$85</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,13 +19,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -411,16 +418,806 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <cols>
+    <col width="15.17" customWidth="1" min="1" max="1"/>
+    <col width="68.5" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+    </row>
+    <row r="49" ht="16" customHeight="1">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+    </row>
+    <row r="59" ht="16" customHeight="1">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+    </row>
+    <row r="61" ht="16" customHeight="1">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+    </row>
+    <row r="62" ht="16" customHeight="1">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+    </row>
+    <row r="64" ht="16" customHeight="1">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+    </row>
+    <row r="74" ht="16" customHeight="1">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+    </row>
+    <row r="77" ht="16" customHeight="1">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+    </row>
+    <row r="85" ht="16" customHeight="1">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="1" fitToWidth="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="85" min="0" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" min="0" max="16383" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/output/spam.xlsx
+++ b/output/spam.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spam Bacon Eggs Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Spam Bacon Eggs Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Spam Bacon Eggs Sheet'!$A$1:$F$85</definedName>

--- a/output/spam.xlsx
+++ b/output/spam.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Spam Bacon Eggs Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vyúčtování služební cesty" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Spam Bacon Eggs Sheet'!$A$1:$F$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Vyúčtování služební cesty'!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,12 +30,6 @@
     <font>
       <name val="Helvetica"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <i val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,22 +52,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.89830508474576" customWidth="1" min="1" max="1"/>
-    <col width="45.08474576271186" customWidth="1" min="2" max="2"/>
-    <col width="10.67796610169492" customWidth="1" min="3" max="3"/>
-    <col width="10.67796610169492" customWidth="1" min="4" max="4"/>
-    <col width="10.67796610169492" customWidth="1" min="5" max="5"/>
-    <col width="10.67796610169492" customWidth="1" min="6" max="6"/>
+    <col width="9.5" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="8.5" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1">
@@ -462,39 +447,39 @@
           <t>Vyúčtování služební cesty</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
+      <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Profisolv, s.r.o.</t>
         </is>
       </c>
-      <c r="D1" s="2" t="n"/>
+      <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Číslo:</t>
         </is>
       </c>
-      <c r="F1" s="2" t="n"/>
+      <c r="F1" s="1" t="n"/>
     </row>
     <row r="2" ht="12" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>List:</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="1" t="n"/>
     </row>
     <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4" ht="12" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -502,23 +487,23 @@
           <t>Pracovník:</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5" ht="12" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ùčel cesty:</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+          <t>Účel cesty:</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6" ht="12" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
@@ -526,11 +511,11 @@
           <t>Prostředek:</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
     </row>
     <row r="7" ht="12" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
@@ -538,31 +523,31 @@
           <t>Trasa:</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
     </row>
     <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
     </row>
     <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Popis trasy</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
     </row>
     <row r="10" ht="12" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
@@ -597,569 +582,470 @@
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
     </row>
     <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
     </row>
     <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
     </row>
     <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
     </row>
     <row r="22" ht="12" customHeight="1">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
     </row>
     <row r="24" ht="12" customHeight="1">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Náklady</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
     </row>
     <row r="26" ht="12" customHeight="1">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
     </row>
     <row r="28" ht="12" customHeight="1">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
     </row>
     <row r="29" ht="12" customHeight="1">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
     </row>
     <row r="30" ht="12" customHeight="1">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
     </row>
     <row r="31" ht="12" customHeight="1">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Stravné</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
     </row>
     <row r="32" ht="12" customHeight="1">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Náklady</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Den</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Popis</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Plné CZ</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Plné za.</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>Celk. / den</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="12" customHeight="1">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Stravné</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
     </row>
     <row r="34" ht="12" customHeight="1">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>Popis</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>Plné</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>Snížené</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
     </row>
     <row r="35" ht="12" customHeight="1">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
     </row>
     <row r="36" ht="12" customHeight="1">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
     </row>
     <row r="37" ht="12" customHeight="1">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="2" t="n"/>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
     </row>
     <row r="38" ht="12" customHeight="1">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
     </row>
     <row r="39" ht="12" customHeight="1">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
     </row>
     <row r="40" ht="12" customHeight="1">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
     </row>
     <row r="41" ht="12" customHeight="1">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="2" t="n"/>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
     </row>
     <row r="42" ht="12" customHeight="1">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+    </row>
+    <row r="43" ht="12" customHeight="1">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>Celkem:</t>
         </is>
       </c>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-    </row>
-    <row r="43" ht="12" customHeight="1">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>Kapesné:</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="12" customHeight="1">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Kapesne:</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
         <is>
           <t>xxxxxxx</t>
         </is>
       </c>
-    </row>
-    <row r="44" ht="12" customHeight="1">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>xxxxxxx</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="12" customHeight="1">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Ubytování</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
+          <t>Ubytování</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+    </row>
+    <row r="47" ht="12" customHeight="1">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Popis</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="inlineStr">
         <is>
           <t>Doklad č.</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t>Částka</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12" customHeight="1">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-    </row>
     <row r="48" ht="12" customHeight="1">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
     </row>
     <row r="49" ht="12" customHeight="1">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
-      <c r="C49" s="2" t="n"/>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
     </row>
     <row r="50" ht="12" customHeight="1">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-    </row>
-    <row r="51" ht="12" customHeight="1">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
-      <c r="C51" s="2" t="n"/>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-    </row>
-    <row r="52" ht="12" customHeight="1">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Celkem:</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n"/>
-    </row>
-    <row r="53" ht="12" customHeight="1">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-    </row>
-    <row r="54" ht="12" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Ostatní výdaje</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n"/>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-    </row>
-    <row r="55" ht="12" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Popis</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n"/>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Doklad č.</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Částka</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12" customHeight="1">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-    </row>
-    <row r="57" ht="12" customHeight="1">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
-      <c r="C57" s="2" t="n"/>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-    </row>
-    <row r="58" ht="12" customHeight="1">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
-      <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-    </row>
-    <row r="59" ht="12" customHeight="1">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
-      <c r="C59" s="2" t="n"/>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-    </row>
-    <row r="60" ht="12" customHeight="1">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
-      <c r="C60" s="2" t="n"/>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-    </row>
-    <row r="61" ht="12" customHeight="1">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-    </row>
-    <row r="62" ht="12" customHeight="1">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
-      <c r="C62" s="2" t="n"/>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="inlineStr">
+    <row r="61">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Celkem:</t>
         </is>
       </c>
-      <c r="F62" s="2" t="n"/>
-    </row>
-    <row r="63" ht="12" customHeight="1">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
-      <c r="C63" s="2" t="n"/>
-      <c r="D63" s="2" t="n"/>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-    </row>
-    <row r="64" ht="12" customHeight="1">
-      <c r="A64" s="2" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Zúčtováno dne:</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>Záloha</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="n"/>
-    </row>
-    <row r="65" ht="12" customHeight="1">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Podpis</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Záloha:</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Podpis:</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Mezisoučet:</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Náklady</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="n"/>
-    </row>
-    <row r="66" ht="12" customHeight="1">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
-      <c r="C66" s="2" t="n"/>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="1" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Náklady:</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
         <is>
           <t>K vyplacení:</t>
         </is>
       </c>
-      <c r="F66" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="1" fitToWidth="1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="66" min="0" max="16383" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="6" min="0" max="16383" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
--- a/output/spam.xlsx
+++ b/output/spam.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Vyúčtování služební cesty" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Travelrep CZ" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Vyúčtování služební cesty'!$A$1:$F$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Travelrep CZ'!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -695,11 +695,7 @@
     </row>
     <row r="25" ht="12" customHeight="1">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Náklady</t>
-        </is>
-      </c>
+      <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
@@ -739,7 +735,11 @@
     </row>
     <row r="30" ht="12" customHeight="1">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Náklady</t>
+        </is>
+      </c>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
@@ -776,12 +776,12 @@
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Plné za.</t>
+          <t>Plné zah.</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>Celk. / den</t>
+          <t>Celk. den</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Kapesne:</t>
+          <t>Kapesné:</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
@@ -965,84 +965,177 @@
       <c r="E50" s="1" t="n"/>
       <c r="F50" s="1" t="n"/>
     </row>
-    <row r="53">
-      <c r="E53" t="inlineStr">
+    <row r="51" ht="12" customHeight="1">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+    </row>
+    <row r="52" ht="12" customHeight="1">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+    </row>
+    <row r="53" ht="12" customHeight="1">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="inlineStr">
         <is>
           <t>Celkem:</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="F53" s="1" t="n"/>
+    </row>
+    <row r="54" ht="12" customHeight="1">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Ostatní</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+    </row>
+    <row r="55" ht="12" customHeight="1">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Popis</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="inlineStr">
         <is>
           <t>Doklad č.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>Částka</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="inlineStr">
+    <row r="56" ht="12" customHeight="1">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+    </row>
+    <row r="57" ht="12" customHeight="1">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+    </row>
+    <row r="58" ht="12" customHeight="1">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+    </row>
+    <row r="59" ht="12" customHeight="1">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+    </row>
+    <row r="60" ht="12" customHeight="1">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+    </row>
+    <row r="61" ht="12" customHeight="1">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>Celkem:</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="F61" s="1" t="n"/>
+    </row>
+    <row r="62" ht="12" customHeight="1">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+    </row>
+    <row r="63" ht="12" customHeight="1">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Zúčtováno dne:</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>Záloha:</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="F63" s="1" t="n"/>
+    </row>
+    <row r="64" ht="12" customHeight="1">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Podpis:</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>Mezisoučet:</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="inlineStr">
         <is>
           <t>Náklady:</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="inlineStr">
+      <c r="F64" s="1" t="n"/>
+    </row>
+    <row r="65" ht="12" customHeight="1">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>K vyplacení:</t>
         </is>
       </c>
+      <c r="F65" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
